--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -886,11 +886,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f>(+E19-F19)/D19-1</f>
         <v>2.044471655926472E-3</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f>+E19-F19-D19</f>
         <v>1766.7199999999721</v>
       </c>
       <c r="J19" s="1">
@@ -903,11 +903,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="2"/>
+        <f>(+K19-L19)/J19-1</f>
         <v>-1.5048587440561922E-2</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="3"/>
+        <f>+K19-L19-J19</f>
         <v>-27717</v>
       </c>
     </row>
@@ -928,11 +928,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f>(+E20-F20)/D20-1</f>
         <v>3.8530716767970485E-3</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f>+E20-F20-D20</f>
         <v>3336.4200000000419</v>
       </c>
       <c r="J20" s="1">
@@ -945,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="2"/>
+        <f>(+K20-L20)/J20-1</f>
         <v>1.3191541670134921E-2</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="3"/>
+        <f>+K20-L20-J20</f>
         <v>23931</v>
       </c>
     </row>
@@ -1177,6 +1177,7 @@
       <c r="C26">
         <v>8</v>
       </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27">

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -46,7 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as of Jul 11</t>
+    <t>as of Jul 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +407,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,35 +1136,35 @@
         <v>2122846.4900000002</v>
       </c>
       <c r="E25" s="1">
-        <v>2150000</v>
+        <v>2165163</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <f>(+E25-F25)/D25-1</f>
-        <v>1.2791085049206563E-2</v>
+        <v>1.9933853059718842E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25" si="7">+E25-F25-D25</f>
-        <v>27153.509999999776</v>
+        <f>+E25-F25-D25</f>
+        <v>42316.509999999776</v>
       </c>
       <c r="J25" s="1">
         <v>2110484.4500000002</v>
       </c>
       <c r="K25" s="1">
-        <v>2117363.1800000002</v>
+        <v>2128900</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25" si="8">(+K25-L25)/J25-1</f>
-        <v>3.2593132823128812E-3</v>
+        <f>(+K25-L25)/J25-1</f>
+        <v>8.7257454088325304E-3</v>
       </c>
       <c r="N25" s="1">
         <f>+K25-L25-J25</f>
-        <v>6878.7299999999814</v>
+        <v>18415.549999999814</v>
       </c>
       <c r="O25" t="s">
         <v>7</v>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="B2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,35 +1136,35 @@
         <v>2122846.4900000002</v>
       </c>
       <c r="E25" s="1">
-        <v>2165163</v>
+        <v>2181069</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <f>(+E25-F25)/D25-1</f>
-        <v>1.9933853059718842E-2</v>
+        <v>2.7426622826599134E-2</v>
       </c>
       <c r="H25" s="1">
         <f>+E25-F25-D25</f>
-        <v>42316.509999999776</v>
+        <v>58222.509999999776</v>
       </c>
       <c r="J25" s="1">
         <v>2110484.4500000002</v>
       </c>
       <c r="K25" s="1">
-        <v>2128900</v>
+        <v>2130907</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" s="2">
         <f>(+K25-L25)/J25-1</f>
-        <v>8.7257454088325304E-3</v>
+        <v>9.6767119037526328E-3</v>
       </c>
       <c r="N25" s="1">
         <f>+K25-L25-J25</f>
-        <v>18415.549999999814</v>
+        <v>20422.549999999814</v>
       </c>
       <c r="O25" t="s">
         <v>7</v>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,11 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as of Jun 24</t>
+    <t>as of Jul 29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as of Jul 15</t>
+    <t>Brokerage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnl/brokerage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep brokerage less than 10k. Prevent churning. Focus on 510050 trading more cost effective and able to put on size and less volatile.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,6 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,12 +82,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +116,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,14 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O30"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
@@ -420,797 +477,1058 @@
     <col min="9" max="9" width="2.625" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="2" spans="2:17" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4">
+      <c r="P2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
         <v>2015</v>
       </c>
-      <c r="C4">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D3" s="5">
         <v>57693.47</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E3" s="5">
         <v>53421.04</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G23" si="0">(+E4-F4)/D4-1</f>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G22" si="0">(+E3-F3)/D3-1</f>
         <v>-7.4053961392857803E-2</v>
       </c>
-      <c r="H4" s="1">
-        <f>+E4-F4-D4</f>
+      <c r="H3" s="5">
+        <f>+E3-F3-D3</f>
         <v>-4272.43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5">
+    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
         <v>2015</v>
       </c>
-      <c r="C5">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D4" s="2">
         <v>53421.04</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E4" s="2">
         <v>250366.57</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F4" s="2">
         <v>200000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>-5.7177284455712463E-2</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H23" si="1">+E5-F5-D5</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H22" si="1">+E4-F4-D4</f>
         <v>-3054.4699999999939</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6">
+    <row r="5" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
         <v>2015</v>
       </c>
-      <c r="C6">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D5" s="5">
         <v>250366.57</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E5" s="5">
         <v>249244.87</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>-4.4802307272892028E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>-1121.7000000000116</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7">
+    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>2016</v>
       </c>
-      <c r="C7">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D6" s="2">
         <v>249244.87</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E6" s="2">
         <v>252300.84</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>1.2260914336973183E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>3055.9700000000012</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8">
+    <row r="7" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
         <v>2016</v>
       </c>
-      <c r="C8">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D7" s="5">
         <v>252300.84</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E7" s="5">
         <v>446190.91</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F7" s="5">
         <v>194430</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>-2.1400245833506082E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>-539.93000000002212</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9">
+    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>2016</v>
       </c>
-      <c r="C9">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D8" s="2">
         <v>446190.91</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E8" s="2">
         <v>449146.28</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>6.6235549262982918E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>2955.3700000000536</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10">
+    <row r="9" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
         <v>2016</v>
       </c>
-      <c r="C10">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D9" s="5">
         <v>449146.28</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E9" s="5">
         <v>438396.8</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>-2.3933138219468408E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>-10749.48000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11">
+    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
         <v>2016</v>
       </c>
-      <c r="C11">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D10" s="2">
         <v>438396.8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E10" s="2">
         <v>436353.07</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>-4.6618269111452504E-3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>-2043.7299999999814</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12">
+    <row r="11" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
         <v>2016</v>
       </c>
-      <c r="C12">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D11" s="5">
         <v>436353.07</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E11" s="5">
         <v>431003.38</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>-1.226000312086728E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>-5349.6900000000023</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13">
+    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
         <v>2016</v>
       </c>
-      <c r="C13">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D12" s="2">
         <v>431003.38</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E12" s="2">
         <v>428567.44</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>-5.6517886240242676E-3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>-2435.9400000000023</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14">
+    <row r="13" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
         <v>2016</v>
       </c>
-      <c r="C14">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D13" s="5">
         <v>428567.44</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E13" s="5">
         <v>433297.22</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>1.1036256044089532E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>4729.7799999999697</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15">
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
         <v>2016</v>
       </c>
-      <c r="C15">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D14" s="2">
         <v>433297.22</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E14" s="2">
         <v>620638.09</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F14" s="2">
         <v>185936</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>3.2422778987597489E-3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>1404.8699999999953</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16">
+    <row r="15" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
         <v>2016</v>
       </c>
-      <c r="C16">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D15" s="5">
         <v>620638.09</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E15" s="5">
         <v>800306.48</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F15" s="5">
         <v>182992</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>-5.3551498909775175E-3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>-3323.609999999986</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17">
+      <c r="P15" s="4">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>N15/P15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
         <v>2016</v>
       </c>
-      <c r="C17">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D16" s="2">
         <v>800306.48</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E16" s="2">
         <v>912420.24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F16" s="2">
         <v>116220</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>-5.1308343773500686E-3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>-4106.2399999999907</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J16" s="1">
         <v>1459485</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K16" s="1">
         <v>1458635</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <f>(+K17-L17)/J17-1</f>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f>(+K16-L16)/J16-1</f>
         <v>-5.8239721545616518E-4</v>
       </c>
-      <c r="N17">
-        <f>+K17-L17-J17</f>
+      <c r="N16" s="1">
+        <f>+K16-L16-J16</f>
         <v>-850</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18">
+      <c r="P16" s="1">
+        <v>5280</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>N16/P16</f>
+        <v>-0.16098484848484848</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
         <v>2016</v>
       </c>
-      <c r="C18">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D17" s="5">
         <v>912420.24</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E17" s="5">
         <v>864145.02</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>-5.2908975364246658E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>-48275.219999999972</v>
       </c>
+      <c r="J17" s="4">
+        <v>1458635</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1841834</v>
+      </c>
+      <c r="L17" s="4">
+        <v>383199</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" ref="M17:M22" si="2">(+K17-L17)/J17-1</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17:N22" si="3">+K17-L17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>+K17-J17</f>
+        <v>383199</v>
+      </c>
+      <c r="P17" s="4">
+        <v>8735</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" ref="Q17:Q24" si="4">N17/P17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>864145.02</v>
+      </c>
+      <c r="E18" s="2">
+        <v>865911.74</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f>(+E18-F18)/D18-1</f>
+        <v>2.044471655926472E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <f>+E18-F18-D18</f>
+        <v>1766.7199999999721</v>
+      </c>
       <c r="J18" s="1">
-        <v>1458635</v>
+        <v>1841834</v>
       </c>
       <c r="K18" s="1">
-        <v>1841834</v>
-      </c>
-      <c r="L18">
-        <v>383199</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" ref="M18:M23" si="2">(+K18-L18)/J18-1</f>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ref="N18:N23" si="3">+K18-L18-J18</f>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f>+K18-J18</f>
-        <v>383199</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19">
+        <v>1814117</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f>(+K18-L18)/J18-1</f>
+        <v>-1.5048587440561922E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <f>+K18-L18-J18</f>
+        <v>-27717</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3413</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="4"/>
+        <v>-8.1210079109288014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
         <v>2017</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>864145.02</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>865911.74</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="E19" s="5">
+        <v>869248.16</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <f>(+E19-F19)/D19-1</f>
-        <v>2.044471655926472E-3</v>
-      </c>
-      <c r="H19" s="1">
+        <v>3.8530716767970485E-3</v>
+      </c>
+      <c r="H19" s="5">
         <f>+E19-F19-D19</f>
-        <v>1766.7199999999721</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1841834</v>
-      </c>
-      <c r="K19" s="1">
+        <v>3336.4200000000419</v>
+      </c>
+      <c r="J19" s="4">
         <v>1814117</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="K19" s="4">
+        <v>1838048</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <f>(+K19-L19)/J19-1</f>
-        <v>-1.5048587440561922E-2</v>
-      </c>
-      <c r="N19" s="1">
+        <v>1.3191541670134921E-2</v>
+      </c>
+      <c r="N19" s="4">
         <f>+K19-L19-J19</f>
-        <v>-27717</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20">
+        <v>23931</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2447</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7797302819779315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>865911.74</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
         <v>869248.16</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f>(+E20-F20)/D20-1</f>
-        <v>3.8530716767970485E-3</v>
-      </c>
-      <c r="H20" s="1">
-        <f>+E20-F20-D20</f>
-        <v>3336.4200000000419</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1814117</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1838048</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <f>(+K20-L20)/J20-1</f>
-        <v>1.3191541670134921E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <f>+K20-L20-J20</f>
-        <v>23931</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21">
-        <v>2017</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>869248.16</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="E20" s="2">
         <v>875344.39</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>7.0132216328189223E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>6096.2299999999814</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J20" s="1">
         <v>1838048</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K20" s="1">
         <v>1836817</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <f t="shared" si="2"/>
         <v>-6.697322376781889E-4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="3"/>
         <v>-1231</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22">
+      <c r="P20" s="1">
+        <v>6548</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.18799633475870495</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
         <v>2017</v>
       </c>
-      <c r="C22">
+      <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D21" s="5">
         <v>875344.39</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E21" s="5">
         <v>1278043.8799999999</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F21" s="5">
         <v>388725.54</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>1.5963945344985797E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>13973.949999999837</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J21" s="4">
         <v>1836817</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K21" s="4">
         <v>1919438</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <f t="shared" si="2"/>
         <v>4.4980528816969789E-2</v>
       </c>
-      <c r="N22" s="1">
-        <f>+K22-L22-J22</f>
+      <c r="N21" s="4">
+        <f>+K21-L21-J21</f>
         <v>82621</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23">
+      <c r="P21" s="4">
+        <v>13510</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="4"/>
+        <v>6.1155440414507769</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
         <v>2017</v>
       </c>
-      <c r="C23">
+      <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D22" s="2">
         <v>1278043.8799999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E22" s="2">
         <v>1697339.92</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F22" s="2">
         <v>288037.59999999998</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>0.10270260830168043</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>131258.43999999994</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J22" s="1">
         <v>1919438</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K22" s="1">
         <v>1954151</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
         <f t="shared" si="2"/>
         <v>1.8084981124683264E-2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="3"/>
         <v>34713</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24">
+      <c r="P22" s="1">
+        <v>7535</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6069011280690111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
         <v>2017</v>
       </c>
-      <c r="C24">
+      <c r="C23" s="4">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D23" s="5">
         <v>1697339.92</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E23" s="5">
         <v>2122846.4900000002</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F23" s="5">
         <f>48000*7.8</f>
         <v>374400</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G23" s="6">
+        <f>(+E23-F23)/D23-1</f>
+        <v>3.0109802637529715E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" ref="H23" si="5">+E23-F23-D23</f>
+        <v>51106.570000000298</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1954151</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2110484.4500000002</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" ref="M23" si="6">(+K23-L23)/J23-1</f>
+        <v>8.0000701071718749E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23" si="7">+K23-L23-J23</f>
+        <v>156333.45000000019</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5400</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="4"/>
+        <v>28.950638888888925</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2122846.4900000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2191476</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f>(+E24-F24)/D24-1</f>
-        <v>3.0109802637529715E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ref="H24" si="4">+E24-F24-D24</f>
-        <v>51106.570000000298</v>
+        <v>3.2329002743858304E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <f>+E24-F24-D24</f>
+        <v>68629.509999999776</v>
       </c>
       <c r="J24" s="1">
-        <v>1954151</v>
+        <v>2110484.4500000002</v>
       </c>
       <c r="K24" s="1">
-        <v>2110484.4500000002</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" ref="M24" si="5">(+K24-L24)/J24-1</f>
-        <v>8.0000701071718749E-2</v>
+        <v>2128347</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>(+K24-L24)/J24-1</f>
+        <v>8.4637202610045037E-3</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" ref="N24" si="6">+K24-L24-J24</f>
-        <v>156333.45000000019</v>
-      </c>
-      <c r="O24" t="s">
+        <f>+K24-L24-J24</f>
+        <v>17862.549999999814</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25">
+      <c r="P24" s="1">
+        <v>9003</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9840664223036559</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
         <v>2017</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="7">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
-        <v>2122846.4900000002</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2181069</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f>(+E25-F25)/D25-1</f>
-        <v>2.7426622826599134E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <f>+E25-F25-D25</f>
-        <v>58222.509999999776</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2110484.4500000002</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2130907</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <f>(+K25-L25)/J25-1</f>
-        <v>9.6767119037526328E-3</v>
-      </c>
-      <c r="N25" s="1">
-        <f>+K25-L25-J25</f>
-        <v>20422.549999999814</v>
-      </c>
-      <c r="O25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26">
-        <v>2017</v>
-      </c>
-      <c r="C26">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="7">
         <v>8</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>2017</v>
-      </c>
-      <c r="C27">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28">
-        <v>2017</v>
-      </c>
-      <c r="C28">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29">
-        <v>2017</v>
-      </c>
-      <c r="C29">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30">
-        <v>2017</v>
-      </c>
-      <c r="C30">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="7">
         <v>12</v>
       </c>
-    </row>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,13 +57,17 @@
     <t>keep brokerage less than 10k. Prevent churning. Focus on 510050 trading more cost effective and able to put on size and less volatile.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>as of Aug 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,13 +151,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +461,10 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="H25" activeCellId="3" sqref="H18:H24 N18:N24 N25 H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,7 +889,7 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <f>(+K16-L16)/J16-1</f>
         <v>-5.8239721545616518E-4</v>
       </c>
@@ -937,7 +938,7 @@
       <c r="L17" s="4">
         <v>383199</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <f t="shared" ref="M17:M22" si="2">(+K17-L17)/J17-1</f>
         <v>0</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <f>(+K18-L18)/J18-1</f>
         <v>-1.5048587440561922E-2</v>
       </c>
@@ -1039,7 +1040,7 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <f>(+K19-L19)/J19-1</f>
         <v>1.3191541670134921E-2</v>
       </c>
@@ -1088,7 +1089,7 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <f t="shared" si="2"/>
         <v>-6.697322376781889E-4</v>
       </c>
@@ -1137,7 +1138,7 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f t="shared" si="2"/>
         <v>4.4980528816969789E-2</v>
       </c>
@@ -1186,7 +1187,7 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <f t="shared" si="2"/>
         <v>1.8084981124683264E-2</v>
       </c>
@@ -1236,7 +1237,7 @@
       <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f t="shared" ref="M23" si="6">(+K23-L23)/J23-1</f>
         <v>8.0000701071718749E-2</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>28.950638888888925</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>2017</v>
       </c>
@@ -1263,35 +1264,35 @@
         <v>2122846.4900000002</v>
       </c>
       <c r="E24" s="2">
-        <v>2191476</v>
+        <v>2191174</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <f>(+E24-F24)/D24-1</f>
-        <v>3.2329002743858304E-2</v>
+        <v>3.2186740926330337E-2</v>
       </c>
       <c r="H24" s="2">
         <f>+E24-F24-D24</f>
-        <v>68629.509999999776</v>
+        <v>68327.509999999776</v>
       </c>
       <c r="J24" s="1">
         <v>2110484.4500000002</v>
       </c>
       <c r="K24" s="1">
-        <v>2128347</v>
+        <v>2127239</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <f>(+K24-L24)/J24-1</f>
-        <v>8.4637202610045037E-3</v>
+        <v>7.9387223156275333E-3</v>
       </c>
       <c r="N24" s="1">
         <f>+K24-L24-J24</f>
-        <v>17862.549999999814</v>
+        <v>16754.549999999814</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>6</v>
@@ -1301,24 +1302,57 @@
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="4"/>
-        <v>1.9840664223036559</v>
-      </c>
-      <c r="R24" s="10" t="s">
+        <v>1.8609963345551277</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
+    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
         <v>2017</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>8</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
+      <c r="D25" s="5">
+        <v>2191174</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2165217</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f>(+E25-F25)/D25-1</f>
+        <v>-1.1846161007752043E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f>+E25-F25-D25</f>
+        <v>-25957</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2127239</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2094862</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>(+K25-L25)/J25-1</f>
+        <v>-1.5220198576652688E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <f>+K25-L25-J25</f>
+        <v>-32377</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7">

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>Deposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,7 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as of Aug 3</t>
+    <t>Chg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chg %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H25" activeCellId="3" sqref="H18:H24 N18:N24 N25 H25"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,10 +486,10 @@
   <sheetData>
     <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:17" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -503,7 +503,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>0</v>
@@ -515,13 +518,16 @@
         <v>2</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -877,7 +883,7 @@
         <v>-5.1308343773500686E-3</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f>+E16-F16-D16</f>
         <v>-4106.2399999999907</v>
       </c>
       <c r="J16" s="1">
@@ -1295,7 +1301,7 @@
         <v>16754.549999999814</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P24" s="1">
         <v>9003</v>
@@ -1305,7 +1311,7 @@
         <v>1.8609963345551277</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1319,105 +1325,141 @@
         <v>2191174</v>
       </c>
       <c r="E25" s="5">
-        <v>2165217</v>
+        <v>2364305</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <f>30400*7.8</f>
+        <v>237120</v>
       </c>
       <c r="G25" s="6">
         <f>(+E25-F25)/D25-1</f>
-        <v>-1.1846161007752043E-2</v>
+        <v>-2.92030664839944E-2</v>
       </c>
       <c r="H25" s="5">
         <f>+E25-F25-D25</f>
-        <v>-25957</v>
+        <v>-63989</v>
       </c>
       <c r="J25" s="4">
         <v>2127239</v>
       </c>
       <c r="K25" s="4">
-        <v>2094862</v>
+        <v>2077044.7</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
       </c>
       <c r="M25" s="11">
         <f>(+K25-L25)/J25-1</f>
-        <v>-1.5220198576652688E-2</v>
+        <v>-2.3595985218398119E-2</v>
       </c>
       <c r="N25" s="4">
         <f>+K25-L25-J25</f>
-        <v>-32377</v>
-      </c>
-      <c r="O25" s="4" t="s">
+        <v>-50194.300000000047</v>
+      </c>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2364305</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2357254</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f>(+E26-F26)/D26-1</f>
+        <v>-2.9822717458195536E-3</v>
+      </c>
+      <c r="H26" s="2">
+        <f>+E26-F26-D26</f>
+        <v>-7051</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2077044.7</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2115496.2400000002</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f>(+K26-L26)/J26-1</f>
+        <v>1.85126203591095E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <f>+K26-L26-J26</f>
+        <v>38451.54000000027</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="4">
         <v>10</v>
       </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="M27" s="11"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
         <v>2017</v>
       </c>
-      <c r="C26" s="7">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="M28" s="10"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
         <v>2017</v>
       </c>
-      <c r="C27" s="7">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C28" s="7">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>12</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="M29" s="11"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
         <v>2018</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="M30" s="10"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7">

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="11880"/>
+    <workbookView xWindow="360" yWindow="96" windowWidth="23256" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as of Jul 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brokerage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>Chg %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very good control on brokerage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,27 +461,28 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -503,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>0</v>
@@ -518,19 +519,19 @@
         <v>2</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>2015</v>
       </c>
@@ -554,8 +555,10 @@
         <f>+E3-F3-D3</f>
         <v>-4272.43</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>2015</v>
       </c>
@@ -579,8 +582,10 @@
         <f t="shared" ref="H4:H22" si="1">+E4-F4-D4</f>
         <v>-3054.4699999999939</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>2015</v>
       </c>
@@ -604,8 +609,10 @@
         <f t="shared" si="1"/>
         <v>-1121.7000000000116</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>2016</v>
       </c>
@@ -629,8 +636,10 @@
         <f t="shared" si="1"/>
         <v>3055.9700000000012</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>2016</v>
       </c>
@@ -654,8 +663,10 @@
         <f t="shared" si="1"/>
         <v>-539.93000000002212</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>2016</v>
       </c>
@@ -679,8 +690,10 @@
         <f t="shared" si="1"/>
         <v>2955.3700000000536</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -704,8 +717,10 @@
         <f t="shared" si="1"/>
         <v>-10749.48000000004</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>2016</v>
       </c>
@@ -729,8 +744,10 @@
         <f t="shared" si="1"/>
         <v>-2043.7299999999814</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -754,8 +771,10 @@
         <f t="shared" si="1"/>
         <v>-5349.6900000000023</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>2016</v>
       </c>
@@ -779,8 +798,10 @@
         <f t="shared" si="1"/>
         <v>-2435.9400000000023</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>2016</v>
       </c>
@@ -804,8 +825,10 @@
         <f t="shared" si="1"/>
         <v>4729.7799999999697</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -829,8 +852,10 @@
         <f t="shared" si="1"/>
         <v>1404.8699999999953</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>2016</v>
       </c>
@@ -854,6 +879,8 @@
         <f t="shared" si="1"/>
         <v>-3323.609999999986</v>
       </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="P15" s="4">
         <v>93</v>
       </c>
@@ -862,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>2016</v>
       </c>
@@ -886,10 +913,10 @@
         <f>+E16-F16-D16</f>
         <v>-4106.2399999999907</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>1459485</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>1458635</v>
       </c>
       <c r="L16" s="1">
@@ -899,7 +926,7 @@
         <f>(+K16-L16)/J16-1</f>
         <v>-5.8239721545616518E-4</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <f>+K16-L16-J16</f>
         <v>-850</v>
       </c>
@@ -911,7 +938,7 @@
         <v>-0.16098484848484848</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>2016</v>
       </c>
@@ -935,10 +962,10 @@
         <f t="shared" si="1"/>
         <v>-48275.219999999972</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>1458635</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>1841834</v>
       </c>
       <c r="L17" s="4">
@@ -948,8 +975,8 @@
         <f t="shared" ref="M17:M22" si="2">(+K17-L17)/J17-1</f>
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <f t="shared" ref="N17:N22" si="3">+K17-L17-J17</f>
+      <c r="N17" s="5">
+        <f>+K17-L17-J17</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
@@ -960,11 +987,11 @@
         <v>8735</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" ref="Q17:Q24" si="4">N17/P17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="Q17:Q26" si="3">N17/P17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>2017</v>
       </c>
@@ -988,10 +1015,10 @@
         <f>+E18-F18-D18</f>
         <v>1766.7199999999721</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>1841834</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>1814117</v>
       </c>
       <c r="L18" s="1">
@@ -1001,7 +1028,7 @@
         <f>(+K18-L18)/J18-1</f>
         <v>-1.5048587440561922E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <f>+K18-L18-J18</f>
         <v>-27717</v>
       </c>
@@ -1009,11 +1036,11 @@
         <v>3413</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-8.1210079109288014</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>2017</v>
       </c>
@@ -1037,10 +1064,10 @@
         <f>+E19-F19-D19</f>
         <v>3336.4200000000419</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>1814117</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>1838048</v>
       </c>
       <c r="L19" s="4">
@@ -1050,7 +1077,7 @@
         <f>(+K19-L19)/J19-1</f>
         <v>1.3191541670134921E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <f>+K19-L19-J19</f>
         <v>23931</v>
       </c>
@@ -1058,11 +1085,11 @@
         <v>2447</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.7797302819779315</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -1086,10 +1113,10 @@
         <f t="shared" si="1"/>
         <v>6096.2299999999814</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>1838048</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>1836817</v>
       </c>
       <c r="L20" s="1">
@@ -1099,19 +1126,19 @@
         <f t="shared" si="2"/>
         <v>-6.697322376781889E-4</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="3"/>
+      <c r="N20" s="2">
+        <f t="shared" ref="N17:N22" si="4">+K20-L20-J20</f>
         <v>-1231</v>
       </c>
       <c r="P20" s="1">
         <v>6548</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.18799633475870495</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>2017</v>
       </c>
@@ -1135,10 +1162,10 @@
         <f t="shared" si="1"/>
         <v>13973.949999999837</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>1836817</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>1919438</v>
       </c>
       <c r="L21" s="4">
@@ -1148,7 +1175,7 @@
         <f t="shared" si="2"/>
         <v>4.4980528816969789E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <f>+K21-L21-J21</f>
         <v>82621</v>
       </c>
@@ -1156,11 +1183,11 @@
         <v>13510</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.1155440414507769</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -1184,10 +1211,10 @@
         <f t="shared" si="1"/>
         <v>131258.43999999994</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>1919438</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>1954151</v>
       </c>
       <c r="L22" s="1">
@@ -1197,19 +1224,19 @@
         <f t="shared" si="2"/>
         <v>1.8084981124683264E-2</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="3"/>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
         <v>34713</v>
       </c>
       <c r="P22" s="1">
         <v>7535</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.6069011280690111</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>2017</v>
       </c>
@@ -1234,10 +1261,10 @@
         <f t="shared" ref="H23" si="5">+E23-F23-D23</f>
         <v>51106.570000000298</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>1954151</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>2110484.4500000002</v>
       </c>
       <c r="L23" s="4">
@@ -1247,7 +1274,7 @@
         <f t="shared" ref="M23" si="6">(+K23-L23)/J23-1</f>
         <v>8.0000701071718749E-2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <f t="shared" ref="N23" si="7">+K23-L23-J23</f>
         <v>156333.45000000019</v>
       </c>
@@ -1255,11 +1282,11 @@
         <v>5400</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.950638888888925</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>2017</v>
       </c>
@@ -1283,10 +1310,10 @@
         <f>+E24-F24-D24</f>
         <v>68327.509999999776</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>2110484.4500000002</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>2127239</v>
       </c>
       <c r="L24" s="1">
@@ -1296,25 +1323,22 @@
         <f>(+K24-L24)/J24-1</f>
         <v>7.9387223156275333E-3</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <f>+K24-L24-J24</f>
         <v>16754.549999999814</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="1">
         <v>9003</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8609963345551277</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>2017</v>
       </c>
@@ -1339,10 +1363,10 @@
         <f>+E25-F25-D25</f>
         <v>-63989</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>2127239</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>2077044.7</v>
       </c>
       <c r="L25" s="4">
@@ -1352,13 +1376,19 @@
         <f>(+K25-L25)/J25-1</f>
         <v>-2.3595985218398119E-2</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <f>+K25-L25-J25</f>
         <v>-50194.300000000047</v>
       </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P25" s="4">
+        <v>3831</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>N25/P25</f>
+        <v>-13.102140433307243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>2017</v>
       </c>
@@ -1369,39 +1399,48 @@
         <v>2364305</v>
       </c>
       <c r="E26" s="2">
-        <v>2357254</v>
+        <v>2355924</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" s="3">
         <f>(+E26-F26)/D26-1</f>
-        <v>-2.9822717458195536E-3</v>
+        <v>-3.5448049215308641E-3</v>
       </c>
       <c r="H26" s="2">
         <f>+E26-F26-D26</f>
-        <v>-7051</v>
-      </c>
-      <c r="J26" s="1">
+        <v>-8381</v>
+      </c>
+      <c r="J26" s="2">
         <v>2077044.7</v>
       </c>
-      <c r="K26" s="1">
-        <v>2115496.2400000002</v>
+      <c r="K26" s="2">
+        <v>2144276.31</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
       <c r="M26" s="10">
         <f>(+K26-L26)/J26-1</f>
-        <v>1.85126203591095E-2</v>
-      </c>
-      <c r="N26" s="1">
+        <v>3.2368879687567631E-2</v>
+      </c>
+      <c r="N26" s="2">
         <f>+K26-L26-J26</f>
-        <v>38451.54000000027</v>
-      </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>67231.610000000102</v>
+      </c>
+      <c r="P26" s="1">
+        <v>247</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>N26/P26</f>
+        <v>272.19275303643764</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>2017</v>
       </c>
@@ -1416,7 +1455,7 @@
       <c r="M27" s="11"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>2017</v>
       </c>
@@ -1431,7 +1470,7 @@
       <c r="M28" s="10"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>2017</v>
       </c>
@@ -1446,7 +1485,7 @@
       <c r="M29" s="11"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <v>2018</v>
       </c>
@@ -1461,7 +1500,7 @@
       <c r="M30" s="10"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B31" s="7">
         <v>2018</v>
       </c>
@@ -1474,7 +1513,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B32" s="7">
         <v>2018</v>
       </c>
@@ -1487,7 +1526,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B33" s="7">
         <v>2018</v>
       </c>
@@ -1500,7 +1539,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B34" s="7">
         <v>2018</v>
       </c>
@@ -1513,7 +1552,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2018</v>
       </c>
@@ -1526,7 +1565,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>2018</v>
       </c>
@@ -1539,7 +1578,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>2018</v>
       </c>
@@ -1552,7 +1591,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>2018</v>
       </c>
@@ -1565,7 +1604,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>2018</v>
       </c>
@@ -1578,7 +1617,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2018</v>
       </c>
@@ -1591,7 +1630,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>2018</v>
       </c>
@@ -1604,7 +1643,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="96" windowWidth="23256" windowHeight="11880"/>
+    <workbookView xWindow="360" yWindow="100" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,34 +470,35 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="12"/>
       <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
@@ -509,6 +519,7 @@
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
@@ -555,6 +566,7 @@
         <f>+E3-F3-D3</f>
         <v>-4272.43</v>
       </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
@@ -582,6 +594,7 @@
         <f t="shared" ref="H4:H22" si="1">+E4-F4-D4</f>
         <v>-3054.4699999999939</v>
       </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -609,6 +622,7 @@
         <f t="shared" si="1"/>
         <v>-1121.7000000000116</v>
       </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
@@ -636,6 +650,7 @@
         <f t="shared" si="1"/>
         <v>3055.9700000000012</v>
       </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
@@ -663,6 +678,7 @@
         <f t="shared" si="1"/>
         <v>-539.93000000002212</v>
       </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
@@ -690,6 +706,7 @@
         <f t="shared" si="1"/>
         <v>2955.3700000000536</v>
       </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -717,6 +734,7 @@
         <f t="shared" si="1"/>
         <v>-10749.48000000004</v>
       </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
@@ -744,6 +762,7 @@
         <f t="shared" si="1"/>
         <v>-2043.7299999999814</v>
       </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -771,6 +790,7 @@
         <f t="shared" si="1"/>
         <v>-5349.6900000000023</v>
       </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
@@ -798,6 +818,7 @@
         <f t="shared" si="1"/>
         <v>-2435.9400000000023</v>
       </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -825,6 +846,7 @@
         <f t="shared" si="1"/>
         <v>4729.7799999999697</v>
       </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
@@ -852,6 +874,7 @@
         <f t="shared" si="1"/>
         <v>1404.8699999999953</v>
       </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -879,6 +902,7 @@
         <f t="shared" si="1"/>
         <v>-3323.609999999986</v>
       </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="P15" s="4">
@@ -913,6 +937,7 @@
         <f>+E16-F16-D16</f>
         <v>-4106.2399999999907</v>
       </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="2">
         <v>1459485</v>
       </c>
@@ -962,6 +987,7 @@
         <f t="shared" si="1"/>
         <v>-48275.219999999972</v>
       </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="5">
         <v>1458635</v>
       </c>
@@ -987,7 +1013,7 @@
         <v>8735</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" ref="Q17:Q26" si="3">N17/P17</f>
+        <f t="shared" ref="Q17:Q24" si="3">N17/P17</f>
         <v>0</v>
       </c>
     </row>
@@ -1015,6 +1041,7 @@
         <f>+E18-F18-D18</f>
         <v>1766.7199999999721</v>
       </c>
+      <c r="I18" s="12"/>
       <c r="J18" s="2">
         <v>1841834</v>
       </c>
@@ -1064,6 +1091,7 @@
         <f>+E19-F19-D19</f>
         <v>3336.4200000000419</v>
       </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="5">
         <v>1814117</v>
       </c>
@@ -1113,6 +1141,7 @@
         <f t="shared" si="1"/>
         <v>6096.2299999999814</v>
       </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="2">
         <v>1838048</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>-6.697322376781889E-4</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N17:N22" si="4">+K20-L20-J20</f>
+        <f t="shared" ref="N20:N22" si="4">+K20-L20-J20</f>
         <v>-1231</v>
       </c>
       <c r="P20" s="1">
@@ -1162,6 +1191,7 @@
         <f t="shared" si="1"/>
         <v>13973.949999999837</v>
       </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="5">
         <v>1836817</v>
       </c>
@@ -1211,6 +1241,7 @@
         <f t="shared" si="1"/>
         <v>131258.43999999994</v>
       </c>
+      <c r="I22" s="12"/>
       <c r="J22" s="2">
         <v>1919438</v>
       </c>
@@ -1261,6 +1292,7 @@
         <f t="shared" ref="H23" si="5">+E23-F23-D23</f>
         <v>51106.570000000298</v>
       </c>
+      <c r="I23" s="12"/>
       <c r="J23" s="5">
         <v>1954151</v>
       </c>
@@ -1310,6 +1342,7 @@
         <f>+E24-F24-D24</f>
         <v>68327.509999999776</v>
       </c>
+      <c r="I24" s="12"/>
       <c r="J24" s="2">
         <v>2110484.4500000002</v>
       </c>
@@ -1338,7 +1371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>2017</v>
       </c>
@@ -1363,6 +1396,7 @@
         <f>+E25-F25-D25</f>
         <v>-63989</v>
       </c>
+      <c r="I25" s="12"/>
       <c r="J25" s="5">
         <v>2127239</v>
       </c>
@@ -1388,7 +1422,7 @@
         <v>-13.102140433307243</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>2017</v>
       </c>
@@ -1412,6 +1446,7 @@
         <f>+E26-F26-D26</f>
         <v>-8381</v>
       </c>
+      <c r="I26" s="12"/>
       <c r="J26" s="2">
         <v>2077044.7</v>
       </c>
@@ -1440,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2017</v>
       </c>
@@ -1452,10 +1487,11 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
+      <c r="I27" s="12"/>
       <c r="M27" s="11"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2017</v>
       </c>
@@ -1467,10 +1503,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="12"/>
       <c r="M28" s="10"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>2017</v>
       </c>
@@ -1482,10 +1519,11 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
+      <c r="I29" s="12"/>
       <c r="M29" s="11"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>2018</v>
       </c>
@@ -1497,10 +1535,11 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
+      <c r="I30" s="12"/>
       <c r="M30" s="10"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="2:18" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>2018</v>
       </c>
@@ -1513,7 +1552,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:18" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>2018</v>
       </c>
@@ -1526,7 +1565,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>2018</v>
       </c>
@@ -1539,7 +1578,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>2018</v>
       </c>
@@ -1657,7 +1696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1670,7 +1709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="100" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>very good control on brokerage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(as of oct 21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,28 +474,28 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.08984375" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -542,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>2015</v>
       </c>
@@ -570,7 +574,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>2015</v>
       </c>
@@ -598,7 +602,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>2015</v>
       </c>
@@ -626,7 +630,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>2016</v>
       </c>
@@ -654,7 +658,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>2016</v>
       </c>
@@ -682,7 +686,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>2016</v>
       </c>
@@ -710,7 +714,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -738,7 +742,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>2016</v>
       </c>
@@ -766,7 +770,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -794,7 +798,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>2016</v>
       </c>
@@ -822,7 +826,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>2016</v>
       </c>
@@ -850,7 +854,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -878,7 +882,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:17" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>2016</v>
       </c>
@@ -913,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>2016</v>
       </c>
@@ -963,7 +967,7 @@
         <v>-0.16098484848484848</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>2016</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>2017</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>-8.1210079109288014</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>2017</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>9.7797302819779315</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>-0.18799633475870495</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>2017</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>6.1155440414507769</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>4.6069011280690111</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>2017</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>28.950638888888925</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>2017</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>2017</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>-13.102140433307243</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>2017</v>
       </c>
@@ -1475,23 +1479,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>2017</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
+      <c r="D27" s="5">
+        <v>2355924</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2358589</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f>(+E27-F27)/D27-1</f>
+        <v>1.1311909891829064E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <f>+E27-F27-D27</f>
+        <v>2665</v>
+      </c>
       <c r="I27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="5">
+        <v>2144276.31</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2193334</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>(+K27-L27)/J27-1</f>
+        <v>2.2878436781311962E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <f>+K27-L27-J27</f>
+        <v>49057.689999999944</v>
+      </c>
+      <c r="P27" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>N27/P27</f>
+        <v>700.82414285714208</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>2017</v>
       </c>
@@ -1504,10 +1545,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="M28" s="10"/>
+      <c r="N28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>2017</v>
       </c>
@@ -1520,10 +1564,13 @@
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="12"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="M29" s="11"/>
+      <c r="N29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <v>2018</v>
       </c>
@@ -1536,10 +1583,13 @@
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="12"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="M30" s="10"/>
+      <c r="N30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>2018</v>
       </c>
@@ -1552,7 +1602,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>2018</v>
       </c>
@@ -1565,7 +1615,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>2018</v>
       </c>
@@ -1578,7 +1628,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>2018</v>
       </c>
@@ -1591,7 +1641,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2018</v>
       </c>
@@ -1604,7 +1654,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>2018</v>
       </c>
@@ -1617,7 +1667,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>2018</v>
       </c>
@@ -1630,7 +1680,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>2018</v>
       </c>
@@ -1643,7 +1693,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>2018</v>
       </c>
@@ -1656,7 +1706,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2018</v>
       </c>
@@ -1669,7 +1719,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>2018</v>
       </c>
@@ -1682,7 +1732,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,7 +1746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,7 +1759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -474,10 +474,10 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1490,43 +1490,43 @@
         <v>2355924</v>
       </c>
       <c r="E27" s="5">
-        <v>2358589</v>
+        <v>2372556</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f>(+E27-F27)/D27-1</f>
-        <v>1.1311909891829064E-3</v>
+        <v>7.0596504810851446E-3</v>
       </c>
       <c r="H27" s="5">
         <f>+E27-F27-D27</f>
-        <v>2665</v>
+        <v>16632</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="5">
         <v>2144276.31</v>
       </c>
       <c r="K27" s="5">
-        <v>2193334</v>
+        <v>2226444</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="11">
         <f>(+K27-L27)/J27-1</f>
-        <v>2.2878436781311962E-2</v>
+        <v>3.8319543809165024E-2</v>
       </c>
       <c r="N27" s="5">
         <f>+K27-L27-J27</f>
-        <v>49057.689999999944</v>
+        <v>82167.689999999944</v>
       </c>
       <c r="P27" s="4">
         <v>70</v>
       </c>
       <c r="Q27" s="5">
         <f>N27/P27</f>
-        <v>700.82414285714208</v>
+        <v>1173.8241428571421</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>11</v>
@@ -1539,17 +1539,49 @@
       <c r="C28" s="1">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="2">
+        <v>2372556</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2381792</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:G29" si="8">(+E28-F28)/D28-1</f>
+        <v>3.892848050794262E-3</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:H29" si="9">+E28-F28-D28</f>
+        <v>9236</v>
+      </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="J28" s="2">
+        <v>2226444</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2209018</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" ref="M28:M29" si="10">(+K28-L28)/J28-1</f>
+        <v>-7.8268305872503108E-3</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ref="N28:N29" si="11">+K28-L28-J28</f>
+        <v>-17426</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" ref="Q28:Q29" si="12">N28/P28</f>
+        <v>-248.94285714285715</v>
+      </c>
     </row>
     <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
@@ -1558,17 +1590,49 @@
       <c r="C29" s="4">
         <v>12</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
+      <c r="D29" s="5">
+        <v>2381792</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2773702</v>
+      </c>
+      <c r="F29" s="5">
+        <f>(34000+14500)*7.78</f>
+        <v>377330</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="8"/>
+        <v>6.1214413349277574E-3</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>14580</v>
+      </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="J29" s="5">
+        <v>2209018</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2205413</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.6319468650776159E-3</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="11"/>
+        <v>-3605</v>
+      </c>
+      <c r="P29" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="12"/>
+        <v>-51.5</v>
+      </c>
     </row>
     <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>(as of oct 21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Position was too low in first part of january. Hold bigger position. Move less. Let mtm do most job. Hold through volatility. Banks revaluation will help A50 go up in the long run. PE @ 8~9 is cheap for banks compared with US counterparts. In Feb, use margin account to do close trading. Hold stock ptf long term. Let expiry handle risk for futures. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +173,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,32 +483,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -507,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:17" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
@@ -546,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>2015</v>
       </c>
@@ -573,8 +583,9 @@
       <c r="I3" s="12"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2015</v>
       </c>
@@ -601,8 +612,9 @@
       <c r="I4" s="12"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2015</v>
       </c>
@@ -629,8 +641,9 @@
       <c r="I5" s="12"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2016</v>
       </c>
@@ -657,8 +670,9 @@
       <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>2016</v>
       </c>
@@ -685,8 +699,9 @@
       <c r="I7" s="12"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2016</v>
       </c>
@@ -713,8 +728,9 @@
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -741,8 +757,9 @@
       <c r="I9" s="12"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2016</v>
       </c>
@@ -769,8 +786,9 @@
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -797,8 +815,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2016</v>
       </c>
@@ -825,8 +844,9 @@
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>2016</v>
       </c>
@@ -853,8 +873,9 @@
       <c r="I13" s="12"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -881,8 +902,9 @@
       <c r="I14" s="12"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>2016</v>
       </c>
@@ -916,8 +938,9 @@
         <f>N15/P15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2016</v>
       </c>
@@ -966,8 +989,9 @@
         <f>N16/P16</f>
         <v>-0.16098484848484848</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>2016</v>
       </c>
@@ -1020,8 +1044,9 @@
         <f t="shared" ref="Q17:Q24" si="3">N17/P17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2017</v>
       </c>
@@ -1070,8 +1095,9 @@
         <f t="shared" si="3"/>
         <v>-8.1210079109288014</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>2017</v>
       </c>
@@ -1120,8 +1146,9 @@
         <f t="shared" si="3"/>
         <v>9.7797302819779315</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -1170,8 +1197,9 @@
         <f t="shared" si="3"/>
         <v>-0.18799633475870495</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2017</v>
       </c>
@@ -1220,8 +1248,9 @@
         <f t="shared" si="3"/>
         <v>6.1155440414507769</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -1270,8 +1299,9 @@
         <f t="shared" si="3"/>
         <v>4.6069011280690111</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="2:18" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>2017</v>
       </c>
@@ -1321,8 +1351,9 @@
         <f t="shared" si="3"/>
         <v>28.950638888888925</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2017</v>
       </c>
@@ -1371,11 +1402,11 @@
         <f t="shared" si="3"/>
         <v>1.8609963345551277</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>2017</v>
       </c>
@@ -1425,8 +1456,9 @@
         <f>N25/P25</f>
         <v>-13.102140433307243</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>2017</v>
       </c>
@@ -1475,11 +1507,11 @@
         <f>N26/P26</f>
         <v>272.19275303643764</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2017</v>
       </c>
@@ -1528,11 +1560,11 @@
         <f>N27/P27</f>
         <v>1173.8241428571421</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2017</v>
       </c>
@@ -1571,19 +1603,19 @@
         <v>-7.8268305872503108E-3</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:N29" si="11">+K28-L28-J28</f>
+        <f t="shared" ref="N28:N30" si="11">+K28-L28-J28</f>
         <v>-17426</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4">
+      <c r="P28" s="1">
         <v>70</v>
       </c>
-      <c r="Q28" s="5">
-        <f t="shared" ref="Q28:Q29" si="12">N28/P28</f>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28:Q30" si="12">N28/P28</f>
         <v>-248.94285714285715</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>2017</v>
       </c>
@@ -1633,40 +1665,81 @@
         <f t="shared" si="12"/>
         <v>-51.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>2018</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="2">
+        <v>2773702</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2825587</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ref="G30" si="13">(+E30-F30)/D30-1</f>
+        <v>1.8706047008654858E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <f>+E30-F30-D30</f>
+        <v>51885</v>
+      </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="2:18" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="J30" s="2">
+        <v>2205413</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2226104.7999999998</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" ref="M30" si="14">(+K30-L30)/J30-1</f>
+        <v>9.3822789654363081E-3</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="11"/>
+        <v>20691.799999999814</v>
+      </c>
+      <c r="P30" s="1">
+        <v>727.31</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="12"/>
+        <v>28.449766949443585</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
         <v>2018</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="2:18" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>2018</v>
       </c>
@@ -1679,7 +1752,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>2018</v>
       </c>
@@ -1692,7 +1765,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>2018</v>
       </c>
@@ -1705,7 +1778,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2018</v>
       </c>
@@ -1718,7 +1791,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>2018</v>
       </c>
@@ -1731,7 +1804,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>2018</v>
       </c>
@@ -1744,7 +1817,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>2018</v>
       </c>
@@ -1757,7 +1830,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>2018</v>
       </c>
@@ -1770,7 +1843,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2018</v>
       </c>
@@ -1783,7 +1856,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>2018</v>
       </c>
@@ -1796,7 +1869,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" s="7" customFormat="1" ht="14.1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,7 +1883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,7 +1896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IB records.xlsx
+++ b/IB records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Starting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,15 +69,45 @@
     <t xml:space="preserve">Position was too low in first part of january. Hold bigger position. Move less. Let mtm do most job. Hold through volatility. Banks revaluation will help A50 go up in the long run. PE @ 8~9 is cheap for banks compared with US counterparts. In Feb, use margin account to do close trading. Hold stock ptf long term. Let expiry handle risk for futures. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Added position recklessly, ptf down 10%. Market was down 8%. Position was too big (7mm, 1.7x equity) and was completely locked in futures (48 lots) for the whole month without being able to trade anything. Some staggering daily losses include 310, drawdown was 800k (20%). Last month things were too smooth which resulted in complacency. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Margin account will not be used in the future. Future margin will not be used in the future.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1/3 for long term position. Stock 1/3 position max long term, 1/3 to do trading. 1/3 cash always available. Never full position in all cases. Futures: 1/3 long term. 1/3 intraday to be held at most 1 day, 1/3 as cash. Feb 2018 was a big lesson for being reckless in the markets.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +120,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,12 +202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -481,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -502,22 +535,27 @@
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.453125" customWidth="1"/>
     <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="66.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:20" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S1" s="7">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
@@ -533,7 +571,7 @@
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
@@ -543,7 +581,7 @@
       <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -555,8 +593,11 @@
       <c r="Q2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>2015</v>
       </c>
@@ -580,12 +621,18 @@
         <f>+E3-F3-D3</f>
         <v>-4272.43</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="5">
+        <f>E3/$S$1+K3</f>
+        <v>45659.008547008554</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2015</v>
       </c>
@@ -609,12 +656,20 @@
         <f t="shared" ref="H4:H22" si="1">+E4-F4-D4</f>
         <v>-3054.4699999999939</v>
       </c>
-      <c r="I4" s="12"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S31" si="2">E4/$S$1+K4</f>
+        <v>213988.52136752137</v>
+      </c>
+      <c r="T4" s="3">
+        <f>((E4-F4)/$S$1+(K4-L4))/S3-1</f>
+        <v>-5.7177284455712574E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2015</v>
       </c>
@@ -638,12 +693,21 @@
         <f t="shared" si="1"/>
         <v>-1121.7000000000116</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="5">
+        <f t="shared" si="2"/>
+        <v>213029.80341880344</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" ref="T5:T31" si="3">((E5-F5)/$S$1+(K5-L5))/S4-1</f>
+        <v>-4.4802307272890918E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2016</v>
       </c>
@@ -667,12 +731,20 @@
         <f t="shared" si="1"/>
         <v>3055.9700000000012</v>
       </c>
-      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="2">
+        <f t="shared" si="2"/>
+        <v>215641.74358974359</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2260914336972961E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>2016</v>
       </c>
@@ -696,12 +768,21 @@
         <f t="shared" si="1"/>
         <v>-539.93000000002212</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="6"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="5">
+        <f t="shared" si="2"/>
+        <v>381359.75213675213</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.1400245833507192E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2016</v>
       </c>
@@ -725,12 +806,20 @@
         <f t="shared" si="1"/>
         <v>2955.3700000000536</v>
       </c>
-      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="2">
+        <f t="shared" si="2"/>
+        <v>383885.70940170944</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="3"/>
+        <v>6.6235549262982918E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -754,12 +843,21 @@
         <f t="shared" si="1"/>
         <v>-10749.48000000004</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="5">
+        <f t="shared" si="2"/>
+        <v>374698.11965811969</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.3933138219468297E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2016</v>
       </c>
@@ -783,12 +881,20 @@
         <f t="shared" si="1"/>
         <v>-2043.7299999999814</v>
       </c>
-      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="2">
+        <f t="shared" si="2"/>
+        <v>372951.34188034193</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.6618269111452504E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -812,12 +918,21 @@
         <f t="shared" si="1"/>
         <v>-5349.6900000000023</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="5">
+        <f t="shared" si="2"/>
+        <v>368378.95726495731</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.226000312086728E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2016</v>
       </c>
@@ -841,12 +956,20 @@
         <f t="shared" si="1"/>
         <v>-2435.9400000000023</v>
       </c>
-      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="2">
+        <f t="shared" si="2"/>
+        <v>366296.95726495731</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.6517886240242676E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>2016</v>
       </c>
@@ -870,12 +993,21 @@
         <f t="shared" si="1"/>
         <v>4729.7799999999697</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="6"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="5">
+        <f t="shared" si="2"/>
+        <v>370339.50427350425</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="3"/>
+        <v>1.103625604408931E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -899,12 +1031,20 @@
         <f t="shared" si="1"/>
         <v>1404.8699999999953</v>
       </c>
-      <c r="I14" s="12"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="2">
+        <f t="shared" si="2"/>
+        <v>530459.905982906</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="3"/>
+        <v>3.2422778987597489E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>2016</v>
       </c>
@@ -928,19 +1068,28 @@
         <f t="shared" si="1"/>
         <v>-3323.609999999986</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
+      <c r="M15" s="6"/>
       <c r="P15" s="4">
         <v>93</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <f>N15/P15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="11"/>
+      <c r="S15" s="5">
+        <f t="shared" si="2"/>
+        <v>684022.6324786325</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="3"/>
+        <v>-5.3551498909774065E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2016</v>
       </c>
@@ -964,19 +1113,18 @@
         <f>+E16-F16-D16</f>
         <v>-4106.2399999999907</v>
       </c>
-      <c r="I16" s="12"/>
       <c r="J16" s="2">
-        <v>1459485</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>1458635</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <f>(+K16-L16)/J16-1</f>
-        <v>-5.8239721545616518E-4</v>
+        <v>1459485</v>
+      </c>
+      <c r="M16" s="3">
+        <f>IF(J16=0,0,(+K16-L16)/J16-1)</f>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <f>+K16-L16-J16</f>
@@ -985,13 +1133,21 @@
       <c r="P16" s="1">
         <v>5280</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <f>N16/P16</f>
         <v>-0.16098484848484848</v>
       </c>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="12"/>
+      <c r="S16" s="2">
+        <f t="shared" si="2"/>
+        <v>2238481.358974359</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.3734833185407069E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>2016</v>
       </c>
@@ -1015,7 +1171,7 @@
         <f t="shared" si="1"/>
         <v>-48275.219999999972</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="5">
         <v>1458635</v>
       </c>
@@ -1025,28 +1181,32 @@
       <c r="L17" s="4">
         <v>383199</v>
       </c>
-      <c r="M17" s="11">
-        <f t="shared" ref="M17:M22" si="2">(+K17-L17)/J17-1</f>
+      <c r="M17" s="6">
+        <f t="shared" ref="M17:M31" si="4">IF(J17=0,0,(+K17-L17)/J17-1)</f>
         <v>0</v>
       </c>
       <c r="N17" s="5">
         <f>+K17-L17-J17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="4">
-        <f>+K17-J17</f>
-        <v>383199</v>
-      </c>
       <c r="P17" s="4">
         <v>8735</v>
       </c>
-      <c r="Q17" s="5">
-        <f t="shared" ref="Q17:Q24" si="3">N17/P17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4">
+        <f t="shared" ref="Q17:Q24" si="5">N17/P17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="5">
+        <f t="shared" si="2"/>
+        <v>2580419.487179487</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.8432528655845992E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2017</v>
       </c>
@@ -1070,7 +1230,6 @@
         <f>+E18-F18-D18</f>
         <v>1766.7199999999721</v>
       </c>
-      <c r="I18" s="12"/>
       <c r="J18" s="2">
         <v>1841834</v>
       </c>
@@ -1080,8 +1239,8 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="10">
-        <f>(+K18-L18)/J18-1</f>
+      <c r="M18" s="3">
+        <f t="shared" si="4"/>
         <v>-1.5048587440561922E-2</v>
       </c>
       <c r="N18" s="2">
@@ -1091,13 +1250,21 @@
       <c r="P18" s="1">
         <v>3413</v>
       </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="1">
+        <f t="shared" si="5"/>
         <v>-8.1210079109288014</v>
       </c>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="12"/>
+      <c r="S18" s="2">
+        <f t="shared" si="2"/>
+        <v>2554212.5042735045</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.0156094013469064E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>2017</v>
       </c>
@@ -1121,7 +1288,7 @@
         <f>+E19-F19-D19</f>
         <v>3336.4200000000419</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="5">
         <v>1814117</v>
       </c>
@@ -1131,8 +1298,8 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="11">
-        <f>(+K19-L19)/J19-1</f>
+      <c r="M19" s="6">
+        <f t="shared" si="4"/>
         <v>1.3191541670134921E-2</v>
       </c>
       <c r="N19" s="5">
@@ -1142,13 +1309,21 @@
       <c r="P19" s="4">
         <v>2447</v>
       </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="4">
+        <f t="shared" si="5"/>
         <v>9.7797302819779315</v>
       </c>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="11"/>
+      <c r="S19" s="5">
+        <f t="shared" si="2"/>
+        <v>2580995.1452991455</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0485674539933765E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2017</v>
       </c>
@@ -1172,7 +1347,6 @@
         <f t="shared" si="1"/>
         <v>6096.2299999999814</v>
       </c>
-      <c r="I20" s="12"/>
       <c r="J20" s="2">
         <v>1838048</v>
       </c>
@@ -1182,24 +1356,32 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="10">
-        <f t="shared" si="2"/>
+      <c r="M20" s="3">
+        <f t="shared" si="4"/>
         <v>-6.697322376781889E-4</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:N22" si="4">+K20-L20-J20</f>
+        <f t="shared" ref="N20:N22" si="6">+K20-L20-J20</f>
         <v>-1231</v>
       </c>
       <c r="P20" s="1">
         <v>6548</v>
       </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="1">
+        <f t="shared" si="5"/>
         <v>-0.18799633475870495</v>
       </c>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="12"/>
+      <c r="S20" s="2">
+        <f t="shared" si="2"/>
+        <v>2584974.5982905985</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5418289331929902E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2017</v>
       </c>
@@ -1223,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>13973.949999999837</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="5">
         <v>1836817</v>
       </c>
@@ -1233,8 +1415,8 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="11">
-        <f t="shared" si="2"/>
+      <c r="M21" s="6">
+        <f t="shared" si="4"/>
         <v>4.4980528816969789E-2</v>
       </c>
       <c r="N21" s="5">
@@ -1244,13 +1426,21 @@
       <c r="P21" s="4">
         <v>13510</v>
       </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="5"/>
         <v>6.1155440414507769</v>
       </c>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="11"/>
+      <c r="S21" s="5">
+        <f t="shared" si="2"/>
+        <v>3011783.1965811965</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="3"/>
+        <v>3.658238927031654E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -1274,7 +1464,6 @@
         <f t="shared" si="1"/>
         <v>131258.43999999994</v>
       </c>
-      <c r="I22" s="12"/>
       <c r="J22" s="2">
         <v>1919438</v>
       </c>
@@ -1284,24 +1473,32 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="10">
-        <f t="shared" si="2"/>
+      <c r="M22" s="3">
+        <f t="shared" si="4"/>
         <v>1.8084981124683264E-2</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34713</v>
       </c>
       <c r="P22" s="1">
         <v>7535</v>
       </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q22" s="1">
+        <f t="shared" si="5"/>
         <v>4.6069011280690111</v>
       </c>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="2:18" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="12"/>
+      <c r="S22" s="2">
+        <f t="shared" si="2"/>
+        <v>3404868.88034188</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8774991845844884E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>2017</v>
       </c>
@@ -1323,10 +1520,10 @@
         <v>3.0109802637529715E-2</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23" si="5">+E23-F23-D23</f>
+        <f t="shared" ref="H23" si="7">+E23-F23-D23</f>
         <v>51106.570000000298</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="5">
         <v>1954151</v>
       </c>
@@ -1336,24 +1533,32 @@
       <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M23" s="11">
-        <f t="shared" ref="M23" si="6">(+K23-L23)/J23-1</f>
+      <c r="M23" s="6">
+        <f t="shared" si="4"/>
         <v>8.0000701071718749E-2</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" ref="N23" si="7">+K23-L23-J23</f>
+        <f t="shared" ref="N23" si="8">+K23-L23-J23</f>
         <v>156333.45000000019</v>
       </c>
       <c r="P23" s="4">
         <v>5400</v>
       </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="5"/>
         <v>28.950638888888925</v>
       </c>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.25">
+      <c r="R23" s="11"/>
+      <c r="S23" s="5">
+        <f t="shared" si="2"/>
+        <v>3924883.1594017101</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="3"/>
+        <v>5.8743606902051049E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2017</v>
       </c>
@@ -1377,7 +1582,6 @@
         <f>+E24-F24-D24</f>
         <v>68327.509999999776</v>
       </c>
-      <c r="I24" s="12"/>
       <c r="J24" s="2">
         <v>2110484.4500000002</v>
       </c>
@@ -1387,8 +1591,8 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="10">
-        <f>(+K24-L24)/J24-1</f>
+      <c r="M24" s="3">
+        <f t="shared" si="4"/>
         <v>7.9387223156275333E-3</v>
       </c>
       <c r="N24" s="2">
@@ -1398,15 +1602,23 @@
       <c r="P24" s="1">
         <v>9003</v>
       </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q24" s="1">
+        <f t="shared" si="5"/>
         <v>1.8609963345551277</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <f t="shared" si="2"/>
+        <v>4000037.290598291</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9148119356510174E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>2017</v>
       </c>
@@ -1431,7 +1643,7 @@
         <f>+E25-F25-D25</f>
         <v>-63989</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="5">
         <v>2127239</v>
       </c>
@@ -1441,8 +1653,8 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="11">
-        <f>(+K25-L25)/J25-1</f>
+      <c r="M25" s="6">
+        <f t="shared" si="4"/>
         <v>-2.3595985218398119E-2</v>
       </c>
       <c r="N25" s="5">
@@ -1452,13 +1664,21 @@
       <c r="P25" s="4">
         <v>3831</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="4">
         <f>N25/P25</f>
         <v>-13.102140433307243</v>
       </c>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="R25" s="11"/>
+      <c r="S25" s="5">
+        <f t="shared" si="2"/>
+        <v>4097818.2042735042</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.6221193796862163E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>2017</v>
       </c>
@@ -1482,7 +1702,6 @@
         <f>+E26-F26-D26</f>
         <v>-8381</v>
       </c>
-      <c r="I26" s="12"/>
       <c r="J26" s="2">
         <v>2077044.7</v>
       </c>
@@ -1492,8 +1711,8 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="10">
-        <f>(+K26-L26)/J26-1</f>
+      <c r="M26" s="3">
+        <f t="shared" si="4"/>
         <v>3.2368879687567631E-2</v>
       </c>
       <c r="N26" s="2">
@@ -1503,15 +1722,23 @@
       <c r="P26" s="1">
         <v>247</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <f>N26/P26</f>
         <v>272.19275303643764</v>
       </c>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <f t="shared" si="2"/>
+        <v>4157886.5664102565</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4658620549371504E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2017</v>
       </c>
@@ -1535,7 +1762,7 @@
         <f>+E27-F27-D27</f>
         <v>16632</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="5">
         <v>2144276.31</v>
       </c>
@@ -1545,8 +1772,8 @@
       <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="M27" s="11">
-        <f>(+K27-L27)/J27-1</f>
+      <c r="M27" s="6">
+        <f t="shared" si="4"/>
         <v>3.8319543809165024E-2</v>
       </c>
       <c r="N27" s="5">
@@ -1556,15 +1783,23 @@
       <c r="P27" s="4">
         <v>70</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <f>N27/P27</f>
         <v>1173.8241428571421</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="5">
+        <f t="shared" si="2"/>
+        <v>4254269.641025641</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3180785015642691E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2017</v>
       </c>
@@ -1581,14 +1816,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:G29" si="8">(+E28-F28)/D28-1</f>
+        <f t="shared" ref="G28:G29" si="9">(+E28-F28)/D28-1</f>
         <v>3.892848050794262E-3</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H29" si="9">+E28-F28-D28</f>
+        <f t="shared" ref="H28:H29" si="10">+E28-F28-D28</f>
         <v>9236</v>
       </c>
-      <c r="I28" s="12"/>
       <c r="J28" s="2">
         <v>2226444</v>
       </c>
@@ -1598,8 +1832,8 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="10">
-        <f t="shared" ref="M28:M29" si="10">(+K28-L28)/J28-1</f>
+      <c r="M28" s="3">
+        <f t="shared" si="4"/>
         <v>-7.8268305872503108E-3</v>
       </c>
       <c r="N28" s="2">
@@ -1609,13 +1843,21 @@
       <c r="P28" s="1">
         <v>70</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <f t="shared" ref="Q28:Q30" si="12">N28/P28</f>
         <v>-248.94285714285715</v>
       </c>
-      <c r="R28" s="14"/>
-    </row>
-    <row r="29" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="12"/>
+      <c r="S28" s="2">
+        <f t="shared" si="2"/>
+        <v>4244737.658119658</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.2405685841024869E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>2017</v>
       </c>
@@ -1633,14 +1875,14 @@
         <v>377330</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1214413349277574E-3</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14580</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="5">
         <v>2209018</v>
       </c>
@@ -1650,8 +1892,8 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="10"/>
+      <c r="M29" s="6">
+        <f t="shared" si="4"/>
         <v>-1.6319468650776159E-3</v>
       </c>
       <c r="N29" s="5">
@@ -1661,13 +1903,21 @@
       <c r="P29" s="4">
         <v>70</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <f t="shared" si="12"/>
         <v>-51.5</v>
       </c>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="11"/>
+      <c r="S29" s="5">
+        <f t="shared" si="2"/>
+        <v>4576098.47008547</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="3"/>
+        <v>2.086474871915156E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>2018</v>
       </c>
@@ -1691,7 +1941,6 @@
         <f>+E30-F30-D30</f>
         <v>51885</v>
       </c>
-      <c r="I30" s="12"/>
       <c r="J30" s="2">
         <v>2205413</v>
       </c>
@@ -1701,8 +1950,8 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="10">
-        <f t="shared" ref="M30" si="14">(+K30-L30)/J30-1</f>
+      <c r="M30" s="3">
+        <f t="shared" si="4"/>
         <v>9.3822789654363081E-3</v>
       </c>
       <c r="N30" s="2">
@@ -1712,34 +1961,77 @@
       <c r="P30" s="1">
         <v>727.31</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <f t="shared" si="12"/>
         <v>28.449766949443585</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <f t="shared" si="2"/>
+        <v>4641136.4239316238</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4212533727435028E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" s="4" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>2018</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
+        <v>2825587</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2479828</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31" si="14">(+E31-F31)/D31-1</f>
+        <v>-0.12236713999604332</v>
+      </c>
+      <c r="H31" s="5">
+        <f>+E31-F31-D31</f>
+        <v>-345759</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="5">
+        <v>2226104.7999999998</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2046883.5699999998</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="4"/>
+        <v>-8.0508891584978426E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" ref="N31" si="15">+K31-L31-J31</f>
+        <v>-179221.22999999998</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="2"/>
+        <v>4166394.6811111108</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.10228997802618933</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>2018</v>
       </c>
@@ -1751,6 +2043,8 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
